--- a/Database MySQL/alura-arquivo/Archivos excel/clientes.xlsx
+++ b/Database MySQL/alura-arquivo/Archivos excel/clientes.xlsx
@@ -1,212 +1,539 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Google Drive\03. Alura Latam\01. PRODUÇÃO\01. Cursos\A_ESP-Yoney Gallardo\1790 - Introducción a SQL con MySQL_ manipule y consulte datos\docs\1790 - Introducción a SQL con MySQL - Roteiro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6555"/>
+    <workbookView windowWidth="15645" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="clientes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+  <si>
+    <t>ID_CARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS_1</t>
+  </si>
+  <si>
+    <t>ADDRESS_2</t>
+  </si>
+  <si>
+    <t>NEIGHBORHOOD</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>BIRTHDAY_DATE</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>GENRE</t>
+  </si>
+  <si>
+    <t>CREDIT_LIMIT</t>
+  </si>
+  <si>
+    <t>VOLUME_BUY</t>
+  </si>
+  <si>
+    <t>FIRST_BUY</t>
+  </si>
+  <si>
+    <t>Edson Calisaya</t>
+  </si>
+  <si>
+    <t>Sta Úrsula Xitla</t>
+  </si>
+  <si>
+    <t>no aplica</t>
+  </si>
+  <si>
+    <t>Barrio del Niño Jesús</t>
+  </si>
+  <si>
+    <t>Ciudad de México</t>
+  </si>
+  <si>
+    <t>CDMX</t>
+  </si>
   <si>
     <t>M</t>
   </si>
   <si>
+    <t>Marcelo Perez</t>
+  </si>
+  <si>
+    <t>F.C. de Cuernavaca 13</t>
+  </si>
+  <si>
+    <t>Carola</t>
+  </si>
+  <si>
+    <t>Pedro Olivera</t>
+  </si>
+  <si>
+    <t>Pachuca 75</t>
+  </si>
+  <si>
+    <t>Condesa</t>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t>DNI</t>
-  </si>
-  <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>DIRECCION1</t>
-  </si>
-  <si>
-    <t>DIRECCION2</t>
-  </si>
-  <si>
-    <t>BARRIO</t>
-  </si>
-  <si>
-    <t>CIUDAD</t>
-  </si>
-  <si>
-    <t>ESTADO</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>EDAD</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>LIMITE_CREDITO</t>
-  </si>
-  <si>
-    <t>VOLUMEN_COMPRA</t>
-  </si>
-  <si>
-    <t>FECHA_NACIMIENTO</t>
-  </si>
-  <si>
-    <t>PRIMERA_COMPRA</t>
-  </si>
-  <si>
-    <t>Edson Calisaya</t>
-  </si>
-  <si>
-    <t>Marcelo Perez</t>
-  </si>
-  <si>
-    <t>Pedro Olivera</t>
-  </si>
-  <si>
     <t>Luis Silva</t>
   </si>
   <si>
+    <t>Prol. 16 de Septiembre 1156</t>
+  </si>
+  <si>
+    <t>Contadero</t>
+  </si>
+  <si>
     <t>Erica Carvajo</t>
   </si>
   <si>
+    <t>Heriberto Frías 1107</t>
+  </si>
+  <si>
+    <t>Del Valle</t>
+  </si>
+  <si>
     <t>Marcos Rosas</t>
   </si>
   <si>
+    <t>Av. Universidad</t>
+  </si>
+  <si>
     <t>Abel Pintos</t>
   </si>
   <si>
+    <t>Carr. México-Toluca 1499</t>
+  </si>
+  <si>
+    <t>Cuajimalpa</t>
+  </si>
+  <si>
     <t>Gabriel Roca</t>
   </si>
   <si>
+    <t>Eje Central Lázaro Cárdenas 911</t>
+  </si>
+  <si>
     <t>Walter Soruco</t>
   </si>
   <si>
+    <t>Calz. de Tlalpan 2980</t>
+  </si>
+  <si>
+    <t>Ex Hacienda Coapa</t>
+  </si>
+  <si>
     <t>Carlos Santivañez</t>
   </si>
   <si>
+    <t>Calz. del Hueso 363</t>
+  </si>
+  <si>
+    <t>Floresta Coyoacán</t>
+  </si>
+  <si>
     <t>Paolo Mendez</t>
   </si>
   <si>
+    <t>Martires de Tacubaya 65</t>
+  </si>
+  <si>
+    <t>Héroes de Padierna</t>
+  </si>
+  <si>
     <t>Jorge Castro</t>
   </si>
   <si>
-    <t>Barrio del Niño Jesús</t>
-  </si>
-  <si>
-    <t>Carola</t>
-  </si>
-  <si>
-    <t>Condesa</t>
-  </si>
-  <si>
-    <t>Contadero</t>
-  </si>
-  <si>
-    <t>Del Valle</t>
-  </si>
-  <si>
-    <t>Cuajimalpa</t>
-  </si>
-  <si>
-    <t>Ex Hacienda Coapa</t>
-  </si>
-  <si>
-    <t>Floresta Coyoacán</t>
-  </si>
-  <si>
-    <t>Héroes de Padierna</t>
+    <t>Federal México-Toluca 5690</t>
   </si>
   <si>
     <t>Locaxco</t>
-  </si>
-  <si>
-    <t>Sta Úrsula Xitla</t>
-  </si>
-  <si>
-    <t>F.C. de Cuernavaca 13</t>
-  </si>
-  <si>
-    <t>Pachuca 75</t>
-  </si>
-  <si>
-    <t>Prol. 16 de Septiembre 1156</t>
-  </si>
-  <si>
-    <t>Av. Universidad</t>
-  </si>
-  <si>
-    <t>Heriberto Frías 1107</t>
-  </si>
-  <si>
-    <t>Carr. México-Toluca 1499</t>
-  </si>
-  <si>
-    <t>Eje Central Lázaro Cárdenas 911</t>
-  </si>
-  <si>
-    <t>Calz. de Tlalpan 2980</t>
-  </si>
-  <si>
-    <t>Ciudad de México</t>
-  </si>
-  <si>
-    <t>CDMX</t>
-  </si>
-  <si>
-    <t>Calz. del Hueso 363</t>
-  </si>
-  <si>
-    <t>Martires de Tacubaya 65</t>
-  </si>
-  <si>
-    <t>Federal México-Toluca 5690</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,25 +541,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -281,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -490,72 +1103,66 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.42857142857143" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="27.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="18.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="7.57142857142857" customWidth="1"/>
+    <col min="8" max="8" width="8.85714285714286" customWidth="1"/>
+    <col min="9" max="9" width="18.4285714285714" customWidth="1"/>
+    <col min="10" max="10" width="5.57142857142857" customWidth="1"/>
+    <col min="11" max="11" width="5.14285714285714" customWidth="1"/>
+    <col min="12" max="12" width="14.8571428571429" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+    <col min="14" max="14" width="17.1428571428571" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -569,28 +1176,28 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>9283760794</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H2">
         <v>22002002</v>
@@ -598,44 +1205,43 @@
       <c r="I2" s="1">
         <v>34979</v>
       </c>
-      <c r="J2" s="1" t="str">
-        <f>YEAR(I2)&amp;"-"&amp;TEXT(MONTH(I2),"mm")&amp;"-"&amp;TEXT(DAY(I2),"dd")</f>
-        <v>1995-01-07</v>
-      </c>
-      <c r="K2">
+      <c r="J2">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
-        <v>0</v>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>150000</v>
       </c>
       <c r="M2">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="N2">
-        <v>250000</v>
-      </c>
-      <c r="O2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>7771579779</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H3">
         <v>88202912</v>
@@ -643,44 +1249,43 @@
       <c r="I3" s="1">
         <v>33688</v>
       </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" ref="J3:J13" si="0">YEAR(I3)&amp;"-"&amp;TEXT(MONTH(I3),"mm")&amp;"-"&amp;TEXT(DAY(I3),"dd")</f>
-        <v>1992-01-25</v>
-      </c>
-      <c r="K3">
+      <c r="J3">
         <v>29</v>
       </c>
-      <c r="L3" t="s">
-        <v>0</v>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>120000</v>
       </c>
       <c r="M3">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="N3">
-        <v>200000</v>
-      </c>
-      <c r="O3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>5576228758</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" t="s">
-        <v>47</v>
-      </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>88192029</v>
@@ -688,44 +1293,43 @@
       <c r="I4" s="1">
         <v>35017</v>
       </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-01-14</v>
-      </c>
-      <c r="K4">
+      <c r="J4">
         <v>25</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>70000</v>
+      </c>
+      <c r="M4">
+        <v>160000</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>70000</v>
-      </c>
-      <c r="N4">
-        <v>160000</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>8502682733</v>
       </c>
       <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
       </c>
       <c r="H5">
         <v>82122020</v>
@@ -733,44 +1337,43 @@
       <c r="I5" s="1">
         <v>34979</v>
       </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-01-07</v>
-      </c>
-      <c r="K5">
+      <c r="J5">
         <v>25</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>110000</v>
+      </c>
+      <c r="M5">
+        <v>190000</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="M5">
-        <v>110000</v>
-      </c>
-      <c r="N5">
-        <v>190000</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1471156710</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <v>80012212</v>
@@ -778,44 +1381,43 @@
       <c r="I6" s="1">
         <v>33117</v>
       </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1990-01-01</v>
-      </c>
-      <c r="K6">
+      <c r="J6">
         <v>30</v>
       </c>
-      <c r="L6" t="s">
-        <v>1</v>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6">
+        <v>170000</v>
       </c>
       <c r="M6">
-        <v>170000</v>
+        <v>245000</v>
       </c>
       <c r="N6">
-        <v>245000</v>
-      </c>
-      <c r="O6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>3623344710</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>22002012</v>
@@ -823,44 +1425,43 @@
       <c r="I7" s="1">
         <v>34712</v>
       </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-01-13</v>
-      </c>
-      <c r="K7">
+      <c r="J7">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
-        <v>0</v>
+      <c r="K7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>110000</v>
       </c>
       <c r="M7">
-        <v>110000</v>
+        <v>220000</v>
       </c>
       <c r="N7">
-        <v>220000</v>
-      </c>
-      <c r="O7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>50534475787</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>22000212</v>
@@ -868,44 +1469,43 @@
       <c r="I8" s="1">
         <v>34953</v>
       </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1995-01-11</v>
-      </c>
-      <c r="K8">
+      <c r="J8">
         <v>25</v>
       </c>
-      <c r="L8" t="s">
+      <c r="K8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>170000</v>
+      </c>
+      <c r="M8">
+        <v>260000</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="M8">
-        <v>170000</v>
-      </c>
-      <c r="N8">
-        <v>260000</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>5840119709</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H9">
         <v>80010221</v>
@@ -913,44 +1513,43 @@
       <c r="I9" s="1">
         <v>31122</v>
       </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1985-01-16</v>
-      </c>
-      <c r="K9">
+      <c r="J9">
         <v>36</v>
       </c>
-      <c r="L9" t="s">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>140000</v>
       </c>
       <c r="M9">
-        <v>140000</v>
+        <v>210000</v>
       </c>
       <c r="N9">
-        <v>210000</v>
-      </c>
-      <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>94387575700</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H10">
         <v>22000201</v>
@@ -958,44 +1557,43 @@
       <c r="I10" s="1">
         <v>32679</v>
       </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1989-01-20</v>
-      </c>
-      <c r="K10">
+      <c r="J10">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>60000</v>
       </c>
       <c r="M10">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="N10">
-        <v>120000</v>
-      </c>
-      <c r="O10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>8719655770</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>81192002</v>
@@ -1003,44 +1601,43 @@
       <c r="I11" s="1">
         <v>30670</v>
       </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1983-01-20</v>
-      </c>
-      <c r="K11">
+      <c r="J11">
         <v>37</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>200000</v>
+      </c>
+      <c r="M11">
+        <v>240000</v>
+      </c>
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="M11">
-        <v>200000</v>
-      </c>
-      <c r="N11">
-        <v>240000</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>5648641702</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H12">
         <v>21002020</v>
@@ -1048,44 +1645,43 @@
       <c r="I12" s="1">
         <v>33480</v>
       </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1991-01-30</v>
-      </c>
-      <c r="K12">
+      <c r="J12">
         <v>29</v>
       </c>
-      <c r="L12" t="s">
+      <c r="K12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>120000</v>
+      </c>
+      <c r="M12">
+        <v>220000</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>120000</v>
-      </c>
-      <c r="N12">
-        <v>220000</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>492472718</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="H13">
         <v>22012002</v>
@@ -1093,28 +1689,25 @@
       <c r="I13" s="1">
         <v>34534</v>
       </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1994-01-19</v>
-      </c>
-      <c r="K13">
+      <c r="J13">
         <v>26</v>
       </c>
-      <c r="L13" t="s">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>75000</v>
       </c>
       <c r="M13">
-        <v>75000</v>
+        <v>95000</v>
       </c>
       <c r="N13">
-        <v>95000</v>
-      </c>
-      <c r="O13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>